--- a/TP4/Vector de estado Nº2 - Grupo 9 - 4K3 - SIM - UTN FRC.xlsx
+++ b/TP4/Vector de estado Nº2 - Grupo 9 - 4K3 - SIM - UTN FRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldovich\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldovich\Descargas\sim-grupo9\TP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5AA64-BA8D-4671-9E19-C1D6690E0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF74A6C-B06A-42BE-888C-82A33D479F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="130">
   <si>
     <t>RND</t>
   </si>
@@ -104,15 +104,9 @@
     <t>Objetos</t>
   </si>
   <si>
-    <t>Terminal[n] (permanentes) { Libre (L) | Ocupada en registro (OR) | Ocupada en registro y mantenimiento (ORM) | En mantenimiento (OM) }</t>
-  </si>
-  <si>
     <t>con n=1,2,3,4</t>
   </si>
   <si>
-    <t>Tecnico (temporal) { Realizando Mantenimiento (RM) | Libre (L) }</t>
-  </si>
-  <si>
     <t>con n=1,2,…,n</t>
   </si>
   <si>
@@ -293,21 +287,9 @@
     <t>llegada_empleado(12)</t>
   </si>
   <si>
-    <t>fin_mantenimiento_terminal(4)</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>ORM</t>
-  </si>
-  <si>
-    <t>fin_mantenimiento_terminal(1)</t>
-  </si>
-  <si>
-    <t>fin_mantenimiento_terminal(2)</t>
-  </si>
-  <si>
     <t>i=13</t>
   </si>
   <si>
@@ -338,9 +320,6 @@
     <t>fin_mantenimiento_terminal(3)</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>(acumular solo en transicion de EC a HR)</t>
   </si>
   <si>
@@ -389,9 +368,6 @@
     <t>llegada_empleado(18)</t>
   </si>
   <si>
-    <t>RM (1)</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -404,9 +380,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>RM (2)</t>
-  </si>
-  <si>
     <t>RM (3)</t>
   </si>
   <si>
@@ -426,13 +399,37 @@
   </si>
   <si>
     <t>(Se cambia de "NO" a "SI" recien cuando el técnico termina de hacer mantenimiento a esa terminal (cuando cambia de estado))</t>
+  </si>
+  <si>
+    <t>EFR</t>
+  </si>
+  <si>
+    <t>llegada_empleado(20)</t>
+  </si>
+  <si>
+    <t>llegada_empleado(22)</t>
+  </si>
+  <si>
+    <t>llegada_empleado(23)</t>
+  </si>
+  <si>
+    <t>llegada_empleado(24)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Tecnico (permanente) { Realizando Mantenimiento (RM) | Libre (L) | Esperando Fin Registro (EFR) }</t>
+  </si>
+  <si>
+    <t>Terminal[n] (permanentes) { Libre (L) | Ocupada en registro (OR) | En mantenimiento (OM) }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -480,6 +477,28 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,15 +635,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,23 +679,13 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -657,8 +694,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,8 +917,8 @@
   </sheetPr>
   <dimension ref="A2:CA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BV44" sqref="BV44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -973,10 +1010,10 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -990,8 +1027,8 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1019,11 +1056,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
@@ -1040,22 +1077,22 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -1100,12 +1137,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,10 +1158,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1133,10 +1170,10 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1179,13 +1216,13 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1212,10 +1249,10 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -1227,13 +1264,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1275,13 +1312,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1328,12 +1365,12 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
@@ -1352,7 +1389,7 @@
     </row>
     <row r="19" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1396,7 +1433,7 @@
     </row>
     <row r="21" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1437,22 +1474,22 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="AC22" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE22" s="30" t="s">
-        <v>104</v>
+      <c r="AC22" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE22" s="37" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
       <c r="G23" s="1"/>
@@ -1469,19 +1506,19 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AG23" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AG23" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
     </row>
     <row r="24" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1509,14 +1546,14 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
@@ -1538,303 +1575,303 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="24" t="s">
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="33" t="s">
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="34" t="s">
+      <c r="AD25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="20" t="s">
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AD25" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE25" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF25" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
-      <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
-      <c r="BR25" s="21"/>
-      <c r="BS25" s="21"/>
-      <c r="BT25" s="21"/>
-      <c r="BU25" s="21"/>
-      <c r="BV25" s="21"/>
-      <c r="BW25" s="21"/>
-      <c r="BX25" s="21"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="27"/>
+      <c r="BE25" s="27"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="27"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="27"/>
+      <c r="BJ25" s="27"/>
+      <c r="BK25" s="27"/>
+      <c r="BL25" s="27"/>
+      <c r="BM25" s="27"/>
+      <c r="BN25" s="27"/>
+      <c r="BO25" s="27"/>
+      <c r="BP25" s="27"/>
+      <c r="BQ25" s="27"/>
+      <c r="BR25" s="27"/>
+      <c r="BS25" s="27"/>
+      <c r="BT25" s="27"/>
+      <c r="BU25" s="27"/>
+      <c r="BV25" s="27"/>
+      <c r="BW25" s="27"/>
+      <c r="BX25" s="27"/>
       <c r="BY25" s="13"/>
     </row>
     <row r="26" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="I26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="N26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="23" t="s">
+      <c r="S26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="T26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="20" t="s">
+      <c r="U26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="V26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="23" t="s">
+      <c r="W26" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="V26" s="23" t="s">
+      <c r="X26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W26" s="23" t="s">
+      <c r="Y26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="Z26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" s="10" t="s">
+      <c r="AA26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Z26" s="10" t="s">
+      <c r="AB26" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH26" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI26" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ26" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AB26" s="20" t="s">
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH26" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI26" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ26" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK26" s="20" t="s">
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="20" t="s">
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AN26" s="21"/>
-      <c r="AO26" s="20" t="s">
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AP26" s="21"/>
-      <c r="AQ26" s="20" t="s">
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AR26" s="21"/>
-      <c r="AS26" s="20" t="s">
+      <c r="AV26" s="27"/>
+      <c r="AW26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="20" t="s">
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="20" t="s">
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="20" t="s">
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="20" t="s">
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="20" t="s">
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF26" s="21"/>
-      <c r="BG26" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH26" s="21"/>
-      <c r="BI26" s="20" t="s">
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ26" s="27"/>
+      <c r="BK26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL26" s="27"/>
+      <c r="BM26" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN26" s="27"/>
+      <c r="BO26" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP26" s="27"/>
+      <c r="BQ26" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR26" s="27"/>
+      <c r="BS26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT26" s="27"/>
+      <c r="BU26" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="20" t="s">
+      <c r="BV26" s="27"/>
+      <c r="BW26" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="BL26" s="21"/>
-      <c r="BM26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN26" s="21"/>
-      <c r="BO26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP26" s="21"/>
-      <c r="BQ26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR26" s="21"/>
-      <c r="BS26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT26" s="21"/>
-      <c r="BU26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV26" s="21"/>
-      <c r="BW26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX26" s="21"/>
+      <c r="BX26" s="27"/>
       <c r="BY26" s="10"/>
     </row>
     <row r="27" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
       <c r="X27" s="10" t="s">
         <v>2</v>
       </c>
@@ -1847,143 +1884,143 @@
       <c r="AA27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
       <c r="AK27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AO27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AP27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AS27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AV27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AW27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AX27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AY27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AZ27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BA27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BB27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BC27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BD27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BE27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BF27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BG27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BH27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BI27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BJ27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BK27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BL27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BM27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BN27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BO27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BP27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BQ27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BR27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BS27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BT27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BU27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BV27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BW27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="BX27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BY27" s="11"/>
     </row>
     <row r="28" spans="1:77" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="12">
         <v>0</v>
@@ -2023,16 +2060,16 @@
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB28" s="12">
         <v>0</v>
@@ -2047,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
@@ -2088,11 +2125,11 @@
     </row>
     <row r="29" spans="1:77" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="12" t="str">
-        <f t="shared" ref="C29:C74" si="2">D28</f>
+        <f t="shared" ref="C29:C61" si="2">D28</f>
         <v>llegada_empleado(1)</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" ref="E29:E39" si="3">H28</f>
@@ -2134,16 +2171,16 @@
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB29" s="12">
         <v>0</v>
@@ -2158,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="AF29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK29" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
@@ -2205,7 +2242,7 @@
         <v>llegada_empleado(2)</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="3"/>
@@ -2250,16 +2287,16 @@
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA30" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB30" s="12">
         <v>0</v>
@@ -2274,14 +2311,14 @@
         <v>0</v>
       </c>
       <c r="AF30" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK30" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL30" s="12"/>
       <c r="AM30" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN30" s="12"/>
       <c r="AO30" s="12"/>
@@ -2323,7 +2360,7 @@
         <v>llegada_empleado(3)</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="3"/>
@@ -2370,16 +2407,16 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB31" s="12">
         <v>0</v>
@@ -2394,18 +2431,18 @@
         <v>0</v>
       </c>
       <c r="AF31" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK31" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL31" s="12"/>
       <c r="AM31" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN31" s="12"/>
       <c r="AO31" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP31" s="12"/>
       <c r="AQ31" s="12"/>
@@ -2445,7 +2482,7 @@
         <v>llegada_empleado(4)</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="3"/>
@@ -2494,16 +2531,16 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB32" s="12">
         <v>0</v>
@@ -2518,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="AF32" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK32" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL32" s="12"/>
       <c r="AM32" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN32" s="12"/>
       <c r="AO32" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP32" s="12"/>
       <c r="AQ32" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
@@ -2571,7 +2608,7 @@
         <v>llegada_empleado(5)</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="3"/>
@@ -2614,16 +2651,16 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA33" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB33" s="12">
         <v>1</v>
@@ -2638,26 +2675,26 @@
         <v>0</v>
       </c>
       <c r="AF33" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK33" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL33" s="12"/>
       <c r="AM33" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN33" s="12"/>
       <c r="AO33" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP33" s="12"/>
       <c r="AQ33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR33" s="12"/>
       <c r="AS33" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT33" s="14">
         <f>E33</f>
@@ -2696,7 +2733,7 @@
         <v>llegada_empleado(6)</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="3"/>
@@ -2739,16 +2776,16 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA34" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB34" s="12">
         <v>2</v>
@@ -2763,32 +2800,32 @@
         <v>0</v>
       </c>
       <c r="AF34" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL34" s="12"/>
       <c r="AM34" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN34" s="12"/>
       <c r="AO34" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP34" s="12"/>
       <c r="AQ34" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR34" s="12"/>
       <c r="AS34" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT34" s="12">
         <v>4.25</v>
       </c>
       <c r="AU34" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV34" s="14">
         <f>E34</f>
@@ -2825,7 +2862,7 @@
         <v>llegada_empleado(7)</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="3"/>
@@ -2868,16 +2905,16 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB35" s="12">
         <v>3</v>
@@ -2892,38 +2929,38 @@
         <v>0</v>
       </c>
       <c r="AF35" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK35" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL35" s="12"/>
       <c r="AM35" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN35" s="12"/>
       <c r="AO35" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP35" s="12"/>
       <c r="AQ35" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR35" s="12"/>
       <c r="AS35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT35" s="12">
         <v>4.25</v>
       </c>
       <c r="AU35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV35" s="12">
         <v>4.72</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX35" s="14">
         <f>E35</f>
@@ -2958,7 +2995,7 @@
         <v>llegada_empleado(8)</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="3"/>
@@ -3001,16 +3038,16 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB36" s="12">
         <v>4</v>
@@ -3025,44 +3062,44 @@
         <v>0</v>
       </c>
       <c r="AF36" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK36" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN36" s="12"/>
       <c r="AO36" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP36" s="12"/>
       <c r="AQ36" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR36" s="12"/>
       <c r="AS36" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT36" s="12">
         <v>4.25</v>
       </c>
       <c r="AU36" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV36" s="12">
         <v>4.72</v>
       </c>
       <c r="AW36" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX36" s="12">
         <v>4.91</v>
       </c>
       <c r="AY36" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ36" s="14">
         <f>E36</f>
@@ -3095,7 +3132,7 @@
         <v>llegada_empleado(9)</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="3"/>
@@ -3138,16 +3175,16 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB37" s="12">
         <v>5</v>
@@ -3162,50 +3199,50 @@
         <v>0</v>
       </c>
       <c r="AF37" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK37" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL37" s="12"/>
       <c r="AM37" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN37" s="12"/>
       <c r="AO37" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP37" s="12"/>
       <c r="AQ37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR37" s="12"/>
       <c r="AS37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT37" s="12">
         <v>4.25</v>
       </c>
       <c r="AU37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV37" s="12">
         <v>4.72</v>
       </c>
       <c r="AW37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX37" s="12">
         <v>4.91</v>
       </c>
       <c r="AY37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ37" s="12">
         <v>4.95</v>
       </c>
       <c r="BA37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB37" s="14">
         <f>E37</f>
@@ -3237,7 +3274,7 @@
         <v>llegada_empleado(10)</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="3"/>
@@ -3280,16 +3317,16 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB38" s="12">
         <v>6</v>
@@ -3304,56 +3341,56 @@
         <v>0</v>
       </c>
       <c r="AF38" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK38" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL38" s="12"/>
       <c r="AM38" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN38" s="12"/>
       <c r="AO38" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP38" s="12"/>
       <c r="AQ38" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR38" s="12"/>
       <c r="AS38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT38" s="12">
         <v>4.25</v>
       </c>
       <c r="AU38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV38" s="12">
         <v>4.72</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX38" s="12">
         <v>4.91</v>
       </c>
       <c r="AY38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ38" s="12">
         <v>4.95</v>
       </c>
       <c r="BA38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB38" s="12">
         <v>5.39</v>
       </c>
       <c r="BC38" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD38" s="14">
         <f>E38</f>
@@ -3382,7 +3419,7 @@
         <v>llegada_empleado(11)</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="3"/>
@@ -3420,16 +3457,16 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB39" s="12">
         <v>6</v>
@@ -3444,56 +3481,56 @@
         <v>0</v>
       </c>
       <c r="AF39" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL39" s="12"/>
       <c r="AM39" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN39" s="12"/>
       <c r="AO39" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP39" s="12"/>
       <c r="AQ39" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR39" s="12"/>
       <c r="AS39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT39" s="12">
         <v>4.25</v>
       </c>
       <c r="AU39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV39" s="12">
         <v>4.72</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX39" s="12">
         <v>4.91</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ39" s="12">
         <v>4.95</v>
       </c>
       <c r="BA39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB39" s="12">
         <v>5.39</v>
       </c>
       <c r="BC39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD39" s="12">
         <v>5.54</v>
@@ -3521,7 +3558,7 @@
         <v>fin_registro_huella(3)</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E40" s="12">
         <f>P38</f>
@@ -3564,16 +3601,16 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB40" s="12">
         <v>5</v>
@@ -3589,52 +3626,52 @@
         <v>1</v>
       </c>
       <c r="AF40" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN40" s="12"/>
       <c r="AO40" s="17"/>
       <c r="AP40" s="17"/>
       <c r="AQ40" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR40" s="12"/>
       <c r="AS40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AT40" s="12"/>
       <c r="AU40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AV40" s="12">
         <v>4.72</v>
       </c>
       <c r="AW40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX40" s="12">
         <v>4.91</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ40" s="12">
         <v>4.95</v>
       </c>
       <c r="BA40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB40" s="12">
         <v>5.39</v>
       </c>
       <c r="BC40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD40" s="12">
         <v>5.54</v>
@@ -3662,7 +3699,7 @@
         <v>fin_registro_huella(2)</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E41" s="12">
         <f>O40</f>
@@ -3705,16 +3742,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA41" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB41" s="12">
         <v>4</v>
@@ -3730,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="AF41" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK41" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AL41" s="12"/>
       <c r="AM41" s="17"/>
@@ -3741,37 +3778,37 @@
       <c r="AO41" s="12"/>
       <c r="AP41" s="12"/>
       <c r="AQ41" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR41" s="12"/>
       <c r="AS41" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AT41" s="12"/>
       <c r="AU41" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AV41" s="12"/>
       <c r="AW41" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AX41" s="12">
         <v>4.91</v>
       </c>
       <c r="AY41" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ41" s="12">
         <v>4.95</v>
       </c>
       <c r="BA41" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB41" s="12">
         <v>5.39</v>
       </c>
       <c r="BC41" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD41" s="12">
         <v>5.54</v>
@@ -3799,7 +3836,7 @@
         <v>fin_registro_huella(4)</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E42" s="12">
         <f>Q41</f>
@@ -3842,16 +3879,16 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB42" s="12">
         <v>3</v>
@@ -3867,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="AF42" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK42" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
@@ -3880,31 +3917,31 @@
       <c r="AQ42" s="17"/>
       <c r="AR42" s="17"/>
       <c r="AS42" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AT42" s="12"/>
       <c r="AU42" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AV42" s="12"/>
       <c r="AW42" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX42" s="12"/>
       <c r="AY42" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AZ42" s="12">
         <v>4.95</v>
       </c>
       <c r="BA42" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB42" s="12">
         <v>5.39</v>
       </c>
       <c r="BC42" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD42" s="12">
         <v>5.54</v>
@@ -3932,7 +3969,7 @@
         <v>fin_registro_huella(1)</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E43" s="12">
         <f>N42</f>
@@ -3975,16 +4012,16 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA43" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="12">
         <v>2</v>
@@ -4000,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="AF43" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK43" s="17"/>
       <c r="AL43" s="17"/>
@@ -4011,29 +4048,29 @@
       <c r="AQ43" s="12"/>
       <c r="AR43" s="12"/>
       <c r="AS43" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AT43" s="12"/>
       <c r="AU43" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AV43" s="12"/>
       <c r="AW43" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX43" s="12"/>
       <c r="AY43" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AZ43" s="12"/>
       <c r="BA43" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB43" s="12">
         <v>5.39</v>
       </c>
       <c r="BC43" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD43" s="12">
         <v>5.54</v>
@@ -4061,7 +4098,7 @@
         <v>fin_registro_huella(3)</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E44" s="12">
         <f>P43</f>
@@ -4104,16 +4141,16 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y44" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA44" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="12">
         <v>1</v>
@@ -4129,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="AF44" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK44" s="12"/>
       <c r="AL44" s="12"/>
@@ -4142,23 +4179,23 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AV44" s="12"/>
       <c r="AW44" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX44" s="12"/>
       <c r="AY44" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AZ44" s="12"/>
       <c r="BA44" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BB44" s="12"/>
       <c r="BC44" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD44" s="12">
         <v>5.54</v>
@@ -4186,7 +4223,7 @@
         <v>fin_registro_huella(2)</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E45" s="12">
         <f>O44</f>
@@ -4229,16 +4266,16 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB45" s="12">
         <v>0</v>
@@ -4254,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="AF45" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK45" s="12"/>
       <c r="AL45" s="12"/>
@@ -4269,19 +4306,19 @@
       <c r="AU45" s="17"/>
       <c r="AV45" s="17"/>
       <c r="AW45" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX45" s="12"/>
       <c r="AY45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AZ45" s="12"/>
       <c r="BA45" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BB45" s="12"/>
       <c r="BC45" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BD45" s="12"/>
       <c r="BE45" s="12"/>
@@ -4307,7 +4344,7 @@
         <v>fin_registro_huella(1)</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E46" s="12">
         <f>N45</f>
@@ -4342,16 +4379,16 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y46" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA46" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB46" s="12">
         <v>0</v>
@@ -4366,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="AF46" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK46" s="12"/>
       <c r="AL46" s="12"/>
@@ -4381,17 +4418,17 @@
       <c r="AU46" s="12"/>
       <c r="AV46" s="12"/>
       <c r="AW46" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX46" s="12"/>
       <c r="AY46" s="17"/>
       <c r="AZ46" s="17"/>
       <c r="BA46" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BB46" s="12"/>
       <c r="BC46" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BD46" s="12"/>
       <c r="BE46" s="12"/>
@@ -4417,7 +4454,7 @@
         <v>fin_registro_huella(4)</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E47" s="12">
         <f>Q46</f>
@@ -4450,16 +4487,16 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB47" s="12">
         <v>0</v>
@@ -4474,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="AF47" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK47" s="12"/>
       <c r="AL47" s="12"/>
@@ -4493,11 +4530,11 @@
       <c r="AY47" s="12"/>
       <c r="AZ47" s="12"/>
       <c r="BA47" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BB47" s="12"/>
       <c r="BC47" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BD47" s="12"/>
       <c r="BE47" s="12"/>
@@ -4523,7 +4560,7 @@
         <v>fin_registro_huella(3)</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E48" s="12">
         <f>P47</f>
@@ -4554,16 +4591,16 @@
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
       <c r="X48" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y48" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z48" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA48" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB48" s="12">
         <v>0</v>
@@ -4578,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="AF48" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK48" s="12"/>
       <c r="AL48" s="12"/>
@@ -4599,7 +4636,7 @@
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
       <c r="BC48" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BD48" s="12"/>
       <c r="BE48" s="12"/>
@@ -4625,7 +4662,7 @@
         <v>fin_registro_huella(2)</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49" s="12">
         <v>16.989999999999998</v>
@@ -4653,16 +4690,16 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA49" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB49" s="12">
         <v>0</v>
@@ -4677,7 +4714,7 @@
         <v>10</v>
       </c>
       <c r="AF49" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK49" s="12"/>
       <c r="AL49" s="12"/>
@@ -4722,7 +4759,7 @@
         <v>llegada_empleado(11)</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" s="12">
         <f t="shared" ref="E50:E51" si="6">H49</f>
@@ -4765,16 +4802,16 @@
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y50" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z50" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB50" s="12">
         <v>0</v>
@@ -4789,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="AF50" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK50" s="12"/>
       <c r="AL50" s="12"/>
@@ -4812,7 +4849,7 @@
       <c r="BC50" s="12"/>
       <c r="BD50" s="12"/>
       <c r="BE50" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BF50" s="12"/>
       <c r="BG50" s="12"/>
@@ -4836,7 +4873,7 @@
         <v>llegada_empleado(12)</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="6"/>
@@ -4881,16 +4918,16 @@
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y51" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA51" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB51" s="12">
         <v>0</v>
@@ -4905,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="AF51" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK51" s="12"/>
       <c r="AL51" s="12"/>
@@ -4928,11 +4965,11 @@
       <c r="BC51" s="12"/>
       <c r="BD51" s="12"/>
       <c r="BE51" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BF51" s="12"/>
       <c r="BG51" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BH51" s="12"/>
       <c r="BI51" s="12"/>
@@ -4954,7 +4991,7 @@
         <v>fin_registro_huella(1)</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E52" s="12">
         <f>N51</f>
@@ -4985,16 +5022,16 @@
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="X52" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y52" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB52" s="12">
         <v>0</v>
@@ -5009,7 +5046,7 @@
         <v>11</v>
       </c>
       <c r="AF52" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK52" s="12"/>
       <c r="AL52" s="12"/>
@@ -5034,7 +5071,7 @@
       <c r="BE52" s="17"/>
       <c r="BF52" s="17"/>
       <c r="BG52" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BH52" s="12"/>
       <c r="BI52" s="12"/>
@@ -5056,7 +5093,7 @@
         <v>fin_registro_huella(2)</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E53" s="14">
         <f>O52</f>
@@ -5085,16 +5122,16 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y53" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA53" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB53" s="12">
         <v>0</v>
@@ -5109,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="AF53" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK53" s="12"/>
       <c r="AL53" s="12"/>
@@ -5154,7 +5191,7 @@
         <v>llegada_empleado(13)</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E54" s="12">
         <f t="shared" ref="E54:E58" si="10">H53</f>
@@ -5164,7 +5201,7 @@
         <v>0.15</v>
       </c>
       <c r="G54" s="14">
-        <f t="shared" ref="G54:G60" si="11">-$F$14*LN(1-F54)</f>
+        <f t="shared" ref="G54:G73" si="11">-$F$14*LN(1-F54)</f>
         <v>0.32503785899554988</v>
       </c>
       <c r="H54" s="15">
@@ -5197,16 +5234,16 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y54" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA54" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB54" s="12">
         <v>0</v>
@@ -5221,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="AF54" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK54" s="12"/>
       <c r="AL54" s="12"/>
@@ -5248,7 +5285,7 @@
       <c r="BG54" s="12"/>
       <c r="BH54" s="12"/>
       <c r="BI54" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
@@ -5268,7 +5305,7 @@
         <v>llegada_empleado(14)</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="10"/>
@@ -5313,16 +5350,16 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y55" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA55" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB55" s="12">
         <v>0</v>
@@ -5337,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="AF55" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK55" s="12"/>
       <c r="AL55" s="12"/>
@@ -5364,11 +5401,11 @@
       <c r="BG55" s="12"/>
       <c r="BH55" s="12"/>
       <c r="BI55" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BL55" s="12"/>
       <c r="BM55" s="12"/>
@@ -5386,7 +5423,7 @@
         <v>llegada_empleado(15)</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="10"/>
@@ -5433,16 +5470,16 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y56" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA56" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB56" s="12">
         <v>0</v>
@@ -5457,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="AF56" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK56" s="12"/>
       <c r="AL56" s="12"/>
@@ -5484,15 +5521,15 @@
       <c r="BG56" s="12"/>
       <c r="BH56" s="12"/>
       <c r="BI56" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BL56" s="12"/>
       <c r="BM56" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN56" s="12"/>
       <c r="BO56" s="12"/>
@@ -5508,7 +5545,7 @@
         <v>llegada_empleado(16)</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="10"/>
@@ -5557,16 +5594,16 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y57" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z57" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA57" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB57" s="12">
         <v>0</v>
@@ -5581,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="AF57" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK57" s="12"/>
       <c r="AL57" s="12"/>
@@ -5608,18 +5645,18 @@
       <c r="BG57" s="12"/>
       <c r="BH57" s="12"/>
       <c r="BI57" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ57" s="12"/>
       <c r="BK57" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BL57" s="12"/>
       <c r="BM57" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO57" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="BO57" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="BP57" s="12"/>
       <c r="BQ57" s="12"/>
@@ -5633,7 +5670,7 @@
         <v>llegada_empleado(17)</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="10"/>
@@ -5676,16 +5713,16 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y58" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z58" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA58" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB58" s="12">
         <v>1</v>
@@ -5700,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AF58" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK58" s="12"/>
       <c r="AL58" s="12"/>
@@ -5727,22 +5764,22 @@
       <c r="BG58" s="12"/>
       <c r="BH58" s="12"/>
       <c r="BI58" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ58" s="12"/>
       <c r="BK58" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BL58" s="12"/>
       <c r="BM58" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN58" s="12"/>
       <c r="BO58" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ58" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="BQ58" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="BR58" s="14">
         <f>E58</f>
@@ -5757,17 +5794,14 @@
         <v>fin_registro_huella(2)</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E59" s="12">
         <f>O58</f>
         <v>55.23</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="G59" s="14"/>
       <c r="H59" s="16">
         <v>55.89</v>
       </c>
@@ -5803,16 +5837,16 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y59" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA59" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB59" s="12">
         <v>0</v>
@@ -5828,7 +5862,7 @@
         <v>13</v>
       </c>
       <c r="AF59" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK59" s="12"/>
       <c r="AL59" s="12"/>
@@ -5855,20 +5889,20 @@
       <c r="BG59" s="12"/>
       <c r="BH59" s="12"/>
       <c r="BI59" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ59" s="12"/>
       <c r="BK59" s="17"/>
       <c r="BL59" s="17"/>
       <c r="BM59" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN59" s="12"/>
       <c r="BO59" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ59" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR59" s="12"/>
       <c r="BS59" s="12"/>
@@ -5880,7 +5914,7 @@
         <v>llegada_empleado(18)</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E60" s="12">
         <f>H59</f>
@@ -5923,16 +5957,16 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y60" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z60" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA60" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB60" s="12">
         <v>1</v>
@@ -5947,7 +5981,7 @@
         <v>13</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK60" s="12"/>
       <c r="AL60" s="12"/>
@@ -5974,24 +6008,24 @@
       <c r="BG60" s="12"/>
       <c r="BH60" s="12"/>
       <c r="BI60" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BJ60" s="12"/>
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
       <c r="BM60" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN60" s="12"/>
       <c r="BO60" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ60" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR60" s="12"/>
       <c r="BS60" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BT60" s="12">
         <f>E60</f>
@@ -6017,7 +6051,7 @@
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="14">
+      <c r="K61" s="24">
         <v>57.3</v>
       </c>
       <c r="L61" s="12">
@@ -6034,7 +6068,7 @@
       <c r="O61" s="12">
         <v>63.17</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="23">
         <v>59.22</v>
       </c>
       <c r="Q61" s="12">
@@ -6047,16 +6081,16 @@
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
       <c r="X61" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y61" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA61" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB61" s="12">
         <v>0</v>
@@ -6072,7 +6106,7 @@
         <v>14</v>
       </c>
       <c r="AF61" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK61" s="12"/>
       <c r="AL61" s="12"/>
@@ -6103,107 +6137,79 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
       <c r="BM61" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN61" s="12"/>
       <c r="BO61" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ61" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR61" s="12"/>
       <c r="BS61" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BT61" s="12"/>
     </row>
-    <row r="62" spans="3:77" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C62" s="12" t="str">
-        <f t="shared" si="2"/>
+    <row r="62" spans="3:77" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C62" s="22" t="str">
+        <f t="shared" ref="C62:C74" si="14">D61</f>
         <v>llegada_tecnico</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="14">
+      <c r="D62" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="25">
         <f>K61</f>
         <v>57.3</v>
       </c>
-      <c r="F62" s="12"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="12">
+      <c r="H62" s="21">
         <v>60.71</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="12"/>
       <c r="M62" s="12"/>
-      <c r="N62" s="12">
+      <c r="N62" s="21">
         <v>62.3</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="21">
         <v>63.17</v>
       </c>
-      <c r="P62" s="16">
+      <c r="P62" s="20">
         <v>59.22</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q62" s="21">
         <v>59.81</v>
       </c>
-      <c r="R62" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="S62" s="12">
-        <f>3+R62*(8-3)</f>
-        <v>5.25</v>
-      </c>
-      <c r="T62" s="14">
-        <f>S62+E62</f>
-        <v>62.55</v>
-      </c>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB62" s="12">
+      <c r="X62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB62" s="21">
         <v>0</v>
       </c>
-      <c r="AC62" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD62" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="12">
-        <v>14</v>
-      </c>
-      <c r="AF62" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ62" s="12" t="s">
-        <v>119</v>
+      <c r="AF62" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG62" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH62" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI62" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ62" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK62" s="12"/>
       <c r="AL62" s="12"/>
@@ -6234,18 +6240,18 @@
       <c r="BK62" s="12"/>
       <c r="BL62" s="12"/>
       <c r="BM62" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BN62" s="12"/>
       <c r="BO62" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ62" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR62" s="12"/>
       <c r="BS62" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BT62" s="12"/>
       <c r="BU62" s="12"/>
@@ -6255,83 +6261,83 @@
       <c r="BY62" s="12"/>
     </row>
     <row r="63" spans="3:77" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C63" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="C63" s="21" t="str">
+        <f t="shared" si="14"/>
         <v>fin_registro_huella(3)</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="12">
+      <c r="D63" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="21">
         <f>P62</f>
         <v>59.22</v>
       </c>
-      <c r="F63" s="12"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="12">
+      <c r="H63" s="21">
         <v>60.71</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="12"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
       <c r="M63" s="12"/>
-      <c r="N63" s="12">
+      <c r="N63" s="21">
         <v>62.3</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="21">
         <v>63.17</v>
       </c>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="16">
+      <c r="P63" s="21"/>
+      <c r="Q63" s="20">
         <v>59.81</v>
       </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12">
-        <v>62.55</v>
-      </c>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y63" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z63" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA63" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB63" s="12">
+      <c r="R63" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="S63" s="21">
+        <f>3*R63*5</f>
+        <v>6.45</v>
+      </c>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21">
+        <f>S63+E63</f>
+        <v>65.67</v>
+      </c>
+      <c r="W63" s="21"/>
+      <c r="X63" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y63" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z63" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA63" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB63" s="21">
         <v>0</v>
       </c>
-      <c r="AC63" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD63" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="12">
-        <v>15</v>
-      </c>
-      <c r="AF63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ63" s="12" t="s">
-        <v>119</v>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG63" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH63" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI63" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ63" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK63" s="12"/>
       <c r="AL63" s="12"/>
@@ -6364,14 +6370,14 @@
       <c r="BM63" s="17"/>
       <c r="BN63" s="17"/>
       <c r="BO63" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BQ63" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR63" s="12"/>
       <c r="BS63" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BT63" s="12"/>
       <c r="BU63" s="12"/>
@@ -6381,81 +6387,78 @@
       <c r="BY63" s="12"/>
     </row>
     <row r="64" spans="3:77" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C64" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="C64" s="21" t="str">
+        <f t="shared" si="14"/>
         <v>fin_registro_huella(4)</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="12">
+      <c r="D64" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="21">
         <f>Q63</f>
         <v>59.81</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="16">
+      <c r="H64" s="20">
         <v>60.71</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="12"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="12">
+      <c r="N64" s="21">
         <v>62.3</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="21">
         <v>63.17</v>
       </c>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12">
-        <v>62.55</v>
-      </c>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y64" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z64" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA64" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB64" s="12">
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21">
+        <f t="shared" ref="S64:S74" si="15">3*R64*5</f>
         <v>0</v>
       </c>
-      <c r="AC64" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD64" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="12">
-        <v>16</v>
-      </c>
-      <c r="AF64" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG64" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH64" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI64" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ64" s="12" t="s">
-        <v>119</v>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W64" s="21"/>
+      <c r="X64" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y64" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z64" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA64" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB64" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG64" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH64" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI64" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ64" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK64" s="12"/>
       <c r="AL64" s="12"/>
@@ -6490,11 +6493,11 @@
       <c r="BO64" s="17"/>
       <c r="BP64" s="17"/>
       <c r="BQ64" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR64" s="12"/>
       <c r="BS64" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BT64" s="12"/>
       <c r="BU64" s="12"/>
@@ -6504,95 +6507,89 @@
       <c r="BY64" s="12"/>
     </row>
     <row r="65" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C65" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="C65" s="21" t="str">
+        <f t="shared" si="14"/>
         <v>llegada_empleado(19)</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="12">
-        <f>H63</f>
+      <c r="D65" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="21">
+        <f>H64</f>
         <v>60.71</v>
       </c>
-      <c r="F65" s="12">
-        <v>0.88</v>
+      <c r="F65" s="21">
+        <v>0.1</v>
       </c>
       <c r="G65" s="14">
-        <f>-$F$14*LN(1-F65)</f>
-        <v>4.240527072400182</v>
-      </c>
-      <c r="H65" s="14">
+        <f t="shared" si="11"/>
+        <v>0.21072103131565256</v>
+      </c>
+      <c r="H65" s="24">
         <f>G65+E65</f>
-        <v>64.950527072400178</v>
-      </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="12">
-        <v>0.81</v>
+        <v>60.920721031315651</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21">
+        <v>0.98</v>
       </c>
       <c r="M65" s="12">
-        <f>$F$5+L65*($G$5-$F$5)</f>
-        <v>7.43</v>
-      </c>
-      <c r="N65" s="16">
+        <f t="shared" ref="M65:M72" si="16">$F$5+L65*($G$5-$F$5)</f>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="N65" s="21">
         <v>62.3</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="21">
         <v>63.17</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21">
         <f>M65+E65</f>
-        <v>68.14</v>
-      </c>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12">
-        <v>62.55</v>
-      </c>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA65" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB65" s="12">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W65" s="21"/>
+      <c r="X65" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y65" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z65" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA65" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB65" s="21">
         <v>0</v>
       </c>
-      <c r="AC65" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD65" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="12">
-        <v>16</v>
-      </c>
-      <c r="AF65" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG65" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH65" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI65" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ65" s="12" t="s">
-        <v>119</v>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG65" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH65" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI65" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ65" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK65" s="12"/>
       <c r="AL65" s="12"/>
@@ -6627,15 +6624,15 @@
       <c r="BO65" s="12"/>
       <c r="BP65" s="12"/>
       <c r="BQ65" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR65" s="12"/>
       <c r="BS65" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BT65" s="12"/>
       <c r="BU65" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV65" s="12"/>
       <c r="BW65" s="12"/>
@@ -6643,81 +6640,83 @@
       <c r="BY65" s="12"/>
     </row>
     <row r="66" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C66" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_registro_huella(1)</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="12">
-        <f>N65</f>
+      <c r="C66" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>llegada_empleado(20)</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="25">
+        <f>H65</f>
+        <v>60.920721031315651</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G66" s="14">
+        <f t="shared" si="11"/>
+        <v>0.21072103131565256</v>
+      </c>
+      <c r="H66" s="25">
+        <f>G66+E66</f>
+        <v>61.131442062631301</v>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="21">
         <v>62.3</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="12">
-        <v>64.95</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12">
+      <c r="O66" s="21">
         <v>63.17</v>
       </c>
-      <c r="P66" s="12">
-        <v>68.14</v>
-      </c>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="16">
-        <v>62.55</v>
-      </c>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y66" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z66" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA66" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD66" s="12">
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W66" s="21"/>
+      <c r="X66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z66" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB66" s="21">
         <v>1</v>
       </c>
-      <c r="AE66" s="12">
-        <v>17</v>
-      </c>
-      <c r="AF66" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG66" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH66" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI66" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ66" s="12" t="s">
-        <v>119</v>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG66" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH66" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI66" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ66" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK66" s="12"/>
       <c r="AL66" s="12"/>
@@ -6752,13 +6751,13 @@
       <c r="BO66" s="12"/>
       <c r="BP66" s="12"/>
       <c r="BQ66" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR66" s="12"/>
       <c r="BS66" s="17"/>
       <c r="BT66" s="17"/>
       <c r="BU66" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV66" s="12"/>
       <c r="BW66" s="12"/>
@@ -6766,86 +6765,83 @@
       <c r="BY66" s="12"/>
     </row>
     <row r="67" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C67" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_mantenimiento_terminal(1)</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="12">
-        <f>T66</f>
-        <v>62.55</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="12">
-        <v>64.95</v>
-      </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="12"/>
+      <c r="C67" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>llegada_empleado(21)</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="25">
+        <f>H66</f>
+        <v>61.131442062631301</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G67" s="14">
+        <f t="shared" si="11"/>
+        <v>1.0216512475319814</v>
+      </c>
+      <c r="H67" s="25">
+        <f>G67+E67</f>
+        <v>62.153093310163285</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="16">
+      <c r="N67" s="21">
+        <v>62.3</v>
+      </c>
+      <c r="O67" s="21">
         <v>63.17</v>
       </c>
-      <c r="P67" s="12">
-        <v>68.14</v>
-      </c>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="S67" s="12">
-        <f>3+R67*(8-3)</f>
-        <v>3.3</v>
-      </c>
-      <c r="T67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12">
-        <f>S67+E67</f>
-        <v>65.849999999999994</v>
-      </c>
-      <c r="X67" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y67" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z67" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA67" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD67" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="12">
-        <v>17</v>
-      </c>
-      <c r="AF67" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG67" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH67" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI67" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ67" s="12" t="s">
-        <v>119</v>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W67" s="21"/>
+      <c r="X67" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y67" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z67" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA67" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB67" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG67" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH67" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI67" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ67" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK67" s="12"/>
       <c r="AL67" s="12"/>
@@ -6880,13 +6876,13 @@
       <c r="BO67" s="12"/>
       <c r="BP67" s="12"/>
       <c r="BQ67" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR67" s="12"/>
       <c r="BS67" s="12"/>
       <c r="BT67" s="12"/>
       <c r="BU67" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV67" s="12"/>
       <c r="BW67" s="12"/>
@@ -6894,78 +6890,83 @@
       <c r="BY67" s="12"/>
     </row>
     <row r="68" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C68" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_registro_huella(2)</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>llegada_empleado(22)</v>
+      </c>
+      <c r="D68" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="12">
-        <f>O67</f>
+      <c r="E68" s="25">
+        <f>H67</f>
+        <v>62.153093310163285</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="11"/>
+        <v>0.44628710262841942</v>
+      </c>
+      <c r="H68" s="25">
+        <f>G68+E68</f>
+        <v>62.599380412791703</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="20">
+        <v>62.3</v>
+      </c>
+      <c r="O68" s="21">
         <v>63.17</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="16">
-        <v>64.95</v>
-      </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12">
-        <v>68.14</v>
-      </c>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12">
-        <v>65.849999999999994</v>
-      </c>
-      <c r="X68" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y68" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z68" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA68" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD68" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE68" s="12">
-        <v>18</v>
-      </c>
-      <c r="AF68" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG68" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ68" s="12" t="s">
-        <v>119</v>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W68" s="21"/>
+      <c r="X68" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y68" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z68" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA68" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB68" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC68" s="21"/>
+      <c r="AD68" s="21"/>
+      <c r="AE68" s="21"/>
+      <c r="AF68" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG68" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH68" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI68" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ68" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK68" s="12"/>
       <c r="AL68" s="12"/>
@@ -7004,7 +7005,7 @@
       <c r="BS68" s="12"/>
       <c r="BT68" s="12"/>
       <c r="BU68" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV68" s="12"/>
       <c r="BW68" s="12"/>
@@ -7012,92 +7013,83 @@
       <c r="BY68" s="12"/>
     </row>
     <row r="69" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C69" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>llegada_empleado(19)</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="12">
-        <f>H67</f>
-        <v>64.95</v>
-      </c>
-      <c r="F69" s="12">
+      <c r="C69" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>fin_registro_huella(1)</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="21">
+        <f>N68</f>
+        <v>62.3</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="20">
+        <v>62.6</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21">
         <v>0.99</v>
       </c>
-      <c r="G69" s="14">
-        <f>-$F$14*LN(1-F69)</f>
-        <v>9.2103403719761818</v>
-      </c>
-      <c r="H69" s="14">
-        <f>G69+E69</f>
-        <v>74.16034037197619</v>
-      </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="12">
-        <v>0.45</v>
-      </c>
       <c r="M69" s="12">
-        <f>$F$5+L69*($G$5-$F$5)</f>
-        <v>6.35</v>
-      </c>
-      <c r="N69" s="12">
+        <f t="shared" si="16"/>
+        <v>7.97</v>
+      </c>
+      <c r="N69" s="21">
         <f>M69+E69</f>
-        <v>71.3</v>
-      </c>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12">
-        <v>68.14</v>
-      </c>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12">
-        <v>65.849999999999994</v>
-      </c>
-      <c r="X69" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y69" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z69" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA69" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD69" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE69" s="12">
-        <v>18</v>
-      </c>
-      <c r="AF69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH69" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI69" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ69" s="12" t="s">
-        <v>119</v>
+        <v>70.27</v>
+      </c>
+      <c r="O69" s="21">
+        <v>63.17</v>
+      </c>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W69" s="21"/>
+      <c r="X69" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y69" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z69" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA69" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB69" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG69" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH69" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI69" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ69" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK69" s="12"/>
       <c r="AL69" s="12"/>
@@ -7136,97 +7128,93 @@
       <c r="BS69" s="12"/>
       <c r="BT69" s="12"/>
       <c r="BU69" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV69" s="12"/>
       <c r="BW69" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BX69" s="12"/>
       <c r="BY69" s="12"/>
     </row>
     <row r="70" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C70" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_mantenimiento_terminal(4)</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="12">
-        <f>W69</f>
-        <v>65.849999999999994</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12">
-        <v>74.16</v>
-      </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="12"/>
+      <c r="C70" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>llegada_empleado(23)</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="21">
+        <f>H69</f>
+        <v>62.6</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G70" s="14">
+        <f t="shared" si="11"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="H70" s="25">
+        <f>G70+E70</f>
+        <v>67.205170185988095</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
       <c r="M70" s="12"/>
-      <c r="N70" s="12">
-        <v>71.3</v>
-      </c>
-      <c r="O70" s="12"/>
-      <c r="P70" s="16">
-        <v>68.14</v>
-      </c>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S70" s="12">
-        <f>3+R70*(8-3)</f>
-        <v>3.1</v>
-      </c>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12">
-        <f>S70+E70</f>
-        <v>68.949999999999989</v>
-      </c>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y70" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z70" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA70" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD70" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="12">
-        <v>18</v>
-      </c>
-      <c r="AF70" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG70" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH70" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI70" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ70" s="12" t="s">
-        <v>122</v>
+      <c r="N70" s="21">
+        <v>70.27</v>
+      </c>
+      <c r="O70" s="20">
+        <v>63.17</v>
+      </c>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21">
+        <v>65.67</v>
+      </c>
+      <c r="W70" s="21"/>
+      <c r="X70" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y70" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z70" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA70" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB70" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="21"/>
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG70" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH70" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI70" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ70" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK70" s="12"/>
       <c r="AL70" s="12"/>
@@ -7265,89 +7253,93 @@
       <c r="BS70" s="12"/>
       <c r="BT70" s="12"/>
       <c r="BU70" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BV70" s="12"/>
       <c r="BW70" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BX70" s="12"/>
       <c r="BY70" s="12"/>
     </row>
     <row r="71" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C71" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_registro_huella(3)</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="12">
-        <f>P70</f>
-        <v>68.14</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12">
-        <v>74.16</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12">
-        <v>71.3</v>
-      </c>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="16">
-        <v>68.95</v>
-      </c>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y71" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z71" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA71" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD71" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="12">
-        <v>19</v>
-      </c>
-      <c r="AF71" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG71" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH71" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI71" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ71" s="12" t="s">
-        <v>122</v>
+      <c r="C71" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>fin_registro_huella(2)</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="21">
+        <f>O70</f>
+        <v>63.17</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="21">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="16"/>
+        <v>7.4</v>
+      </c>
+      <c r="N71" s="21">
+        <v>70.27</v>
+      </c>
+      <c r="O71" s="21">
+        <f>M71+E71</f>
+        <v>70.570000000000007</v>
+      </c>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="20">
+        <v>65.67</v>
+      </c>
+      <c r="W71" s="21"/>
+      <c r="X71" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y71" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z71" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA71" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB71" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG71" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH71" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI71" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ71" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK71" s="12"/>
       <c r="AL71" s="12"/>
@@ -7388,91 +7380,89 @@
       <c r="BU71" s="17"/>
       <c r="BV71" s="17"/>
       <c r="BW71" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BX71" s="12"/>
       <c r="BY71" s="12"/>
     </row>
     <row r="72" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C72" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_mantenimiento_terminal(2)</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="12">
-        <f>U71</f>
-        <v>68.95</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12">
-        <v>74.16</v>
-      </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="16">
-        <v>71.3</v>
-      </c>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="S72" s="12">
-        <f>3+R72*(8-3)</f>
-        <v>3.5</v>
-      </c>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12">
-        <f>S72+E72</f>
-        <v>72.45</v>
-      </c>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y72" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z72" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA72" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD72" s="12">
+      <c r="C72" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>fin_mantenimiento_terminal(3)</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="21">
+        <f>V71</f>
+        <v>65.67</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="20">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="M72" s="12">
+        <f t="shared" si="16"/>
+        <v>7.1</v>
+      </c>
+      <c r="N72" s="21">
+        <v>70.27</v>
+      </c>
+      <c r="O72" s="21">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="P72" s="21">
+        <f>M72+E72</f>
+        <v>72.77</v>
+      </c>
+      <c r="Q72" s="21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB72" s="21">
         <v>1</v>
       </c>
-      <c r="AE72" s="12">
-        <v>19</v>
-      </c>
-      <c r="AF72" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG72" s="12" t="s">
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AH72" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI72" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ72" s="12" t="s">
-        <v>122</v>
+      <c r="AG72" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH72" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI72" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ72" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK72" s="12"/>
       <c r="AL72" s="12"/>
@@ -7513,83 +7503,89 @@
       <c r="BU72" s="12"/>
       <c r="BV72" s="12"/>
       <c r="BW72" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BX72" s="12"/>
       <c r="BY72" s="12"/>
     </row>
     <row r="73" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C73" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_registro_huella(1)</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="12">
-        <f>N72</f>
-        <v>71.3</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12">
-        <v>74.16</v>
-      </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="16">
-        <v>72.45</v>
-      </c>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y73" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z73" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA73" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD73" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="12">
-        <v>20</v>
-      </c>
-      <c r="AF73" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG73" s="12" t="s">
+      <c r="C73" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>llegada_empleado(24)</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="21">
+        <f>H72</f>
+        <v>67.209999999999994</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G73" s="14">
+        <f t="shared" si="11"/>
+        <v>3.218875824868201</v>
+      </c>
+      <c r="H73" s="25">
+        <f>G73+E73</f>
+        <v>70.4288758248682</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21">
+        <v>70.27</v>
+      </c>
+      <c r="O73" s="21">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="P73" s="21">
+        <v>72.77</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y73" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z73" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA73" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB73" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AH73" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI73" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ73" s="12" t="s">
-        <v>122</v>
+      <c r="AG73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI73" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ73" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK73" s="12"/>
       <c r="AL73" s="12"/>
@@ -7634,83 +7630,83 @@
       <c r="BY73" s="12"/>
     </row>
     <row r="74" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C74" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>fin_mantenimiento_terminal(3)</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="12">
-        <f>V73</f>
-        <v>72.45</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="16">
-        <v>74.16</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J74" s="14">
-        <f>$H$8+I74*($I$8-$H$8)</f>
-        <v>60.3</v>
-      </c>
-      <c r="K74" s="14">
-        <f>J74+E74</f>
-        <v>132.75</v>
-      </c>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB74" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="12">
-        <v>24.43</v>
-      </c>
-      <c r="AD74" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="12">
-        <v>20</v>
-      </c>
-      <c r="AF74" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG74" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH74" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI74" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ74" s="12" t="s">
-        <v>122</v>
+      <c r="C74" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>fin_registro_huella(4)</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="21">
+        <f>Q73</f>
+        <v>68.650000000000006</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21">
+        <v>70.27</v>
+      </c>
+      <c r="O74" s="21">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="P74" s="21">
+        <v>72.77</v>
+      </c>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="S74" s="21">
+        <f t="shared" si="15"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21">
+        <f>S74+E74</f>
+        <v>70.150000000000006</v>
+      </c>
+      <c r="X74" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y74" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z74" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA74" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB74" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG74" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH74" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI74" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ74" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AK74" s="12"/>
       <c r="AL74" s="12"/>
@@ -7755,42 +7751,40 @@
       <c r="BY74" s="12"/>
     </row>
     <row r="75" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C75" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="12"/>
-      <c r="AJ75" s="12"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
       <c r="AK75" s="12"/>
       <c r="AL75" s="12"/>
       <c r="AM75" s="12"/>
@@ -7994,6 +7988,41 @@
       <c r="CA77" s="12"/>
     </row>
     <row r="78" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="21"/>
+      <c r="AK78" s="21"/>
       <c r="AL78" s="12"/>
       <c r="AM78" s="12"/>
       <c r="AN78" s="12"/>
@@ -8038,6 +8067,41 @@
       <c r="CA78" s="12"/>
     </row>
     <row r="79" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="21"/>
+      <c r="AD79" s="21"/>
+      <c r="AE79" s="21"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
       <c r="AL79" s="12"/>
       <c r="AM79" s="12"/>
       <c r="AN79" s="12"/>
@@ -8082,6 +8146,41 @@
       <c r="CA79" s="12"/>
     </row>
     <row r="80" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
       <c r="AL80" s="12"/>
       <c r="AM80" s="12"/>
       <c r="AN80" s="12"/>
@@ -8125,7 +8224,42 @@
       <c r="BZ80" s="12"/>
       <c r="CA80" s="12"/>
     </row>
-    <row r="81" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="21"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
       <c r="AL81" s="12"/>
       <c r="AM81" s="12"/>
       <c r="AN81" s="12"/>
@@ -8169,7 +8303,42 @@
       <c r="BZ81" s="12"/>
       <c r="CA81" s="12"/>
     </row>
-    <row r="82" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
       <c r="AL82" s="12"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="12"/>
@@ -8213,7 +8382,42 @@
       <c r="BZ82" s="12"/>
       <c r="CA82" s="12"/>
     </row>
-    <row r="83" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21"/>
+      <c r="AD83" s="21"/>
+      <c r="AE83" s="21"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
       <c r="AL83" s="12"/>
       <c r="AM83" s="12"/>
       <c r="AN83" s="12"/>
@@ -8257,7 +8461,42 @@
       <c r="BZ83" s="12"/>
       <c r="CA83" s="12"/>
     </row>
-    <row r="84" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="21"/>
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
       <c r="AL84" s="12"/>
       <c r="AM84" s="12"/>
       <c r="AN84" s="12"/>
@@ -8290,7 +8529,42 @@
       <c r="BO84" s="12"/>
       <c r="BP84" s="12"/>
     </row>
-    <row r="85" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="21"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="21"/>
       <c r="AL85" s="12"/>
       <c r="AM85" s="12"/>
       <c r="AN85" s="12"/>
@@ -8323,7 +8597,42 @@
       <c r="BO85" s="12"/>
       <c r="BP85" s="12"/>
     </row>
-    <row r="86" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
       <c r="AL86" s="12"/>
       <c r="AM86" s="12"/>
       <c r="AN86" s="12"/>
@@ -8356,7 +8665,42 @@
       <c r="BO86" s="12"/>
       <c r="BP86" s="12"/>
     </row>
-    <row r="87" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
       <c r="AL87" s="12"/>
       <c r="AM87" s="12"/>
       <c r="AN87" s="12"/>
@@ -8389,7 +8733,42 @@
       <c r="BO87" s="12"/>
       <c r="BP87" s="12"/>
     </row>
-    <row r="88" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
       <c r="AL88" s="12"/>
       <c r="AM88" s="12"/>
       <c r="AN88" s="12"/>
@@ -8422,7 +8801,42 @@
       <c r="BO88" s="12"/>
       <c r="BP88" s="12"/>
     </row>
-    <row r="89" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
       <c r="AL89" s="12"/>
       <c r="AM89" s="12"/>
       <c r="AN89" s="12"/>
@@ -8455,7 +8869,42 @@
       <c r="BO89" s="12"/>
       <c r="BP89" s="12"/>
     </row>
-    <row r="90" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
       <c r="AL90" s="12"/>
       <c r="AM90" s="12"/>
       <c r="AN90" s="12"/>
@@ -8488,7 +8937,42 @@
       <c r="BO90" s="12"/>
       <c r="BP90" s="12"/>
     </row>
-    <row r="91" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
       <c r="AL91" s="12"/>
       <c r="AM91" s="12"/>
       <c r="AN91" s="12"/>
@@ -8521,7 +9005,42 @@
       <c r="BO91" s="12"/>
       <c r="BP91" s="12"/>
     </row>
-    <row r="92" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
       <c r="AL92" s="12"/>
       <c r="AM92" s="12"/>
       <c r="AN92" s="12"/>
@@ -8554,7 +9073,42 @@
       <c r="BO92" s="12"/>
       <c r="BP92" s="12"/>
     </row>
-    <row r="93" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
       <c r="AL93" s="12"/>
       <c r="AM93" s="12"/>
       <c r="AN93" s="12"/>
@@ -8587,7 +9141,42 @@
       <c r="BO93" s="12"/>
       <c r="BP93" s="12"/>
     </row>
-    <row r="94" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21"/>
+      <c r="AJ94" s="21"/>
+      <c r="AK94" s="21"/>
       <c r="AL94" s="12"/>
       <c r="AM94" s="12"/>
       <c r="AN94" s="12"/>
@@ -8620,7 +9209,42 @@
       <c r="BO94" s="12"/>
       <c r="BP94" s="12"/>
     </row>
-    <row r="95" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="21"/>
+      <c r="AK95" s="21"/>
       <c r="AL95" s="12"/>
       <c r="AM95" s="12"/>
       <c r="AN95" s="12"/>
@@ -8653,7 +9277,42 @@
       <c r="BO95" s="12"/>
       <c r="BP95" s="12"/>
     </row>
-    <row r="96" spans="38:79" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:79" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
       <c r="AL96" s="12"/>
       <c r="AM96" s="12"/>
       <c r="AN96" s="12"/>
@@ -8686,7 +9345,42 @@
       <c r="BO96" s="12"/>
       <c r="BP96" s="12"/>
     </row>
-    <row r="97" spans="38:68" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:68" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="21"/>
+      <c r="AA97" s="21"/>
+      <c r="AB97" s="21"/>
+      <c r="AC97" s="21"/>
+      <c r="AD97" s="21"/>
+      <c r="AE97" s="21"/>
+      <c r="AF97" s="21"/>
+      <c r="AG97" s="21"/>
+      <c r="AH97" s="21"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="21"/>
+      <c r="AK97" s="21"/>
       <c r="AL97" s="12"/>
       <c r="AM97" s="12"/>
       <c r="AN97" s="12"/>
@@ -8719,7 +9413,7 @@
       <c r="BO97" s="12"/>
       <c r="BP97" s="12"/>
     </row>
-    <row r="98" spans="38:68" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:68" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AL98" s="12"/>
       <c r="AM98" s="12"/>
       <c r="AN98" s="12"/>
@@ -8752,7 +9446,7 @@
       <c r="BO98" s="12"/>
       <c r="BP98" s="12"/>
     </row>
-    <row r="99" spans="38:68" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:68" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AL99" s="12"/>
       <c r="AM99" s="12"/>
       <c r="AN99" s="12"/>
@@ -8787,9 +9481,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="AE25:AE27"/>
     <mergeCell ref="AG23:AJ24"/>
     <mergeCell ref="R25:W25"/>
     <mergeCell ref="X25:AB25"/>
@@ -8797,12 +9488,6 @@
     <mergeCell ref="S26:S27"/>
     <mergeCell ref="AB26:AB27"/>
     <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AE22:AE24"/>
     <mergeCell ref="AC22:AC24"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="N8:S8"/>
@@ -8826,6 +9511,16 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AH26:AH27"/>
     <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="AK25:BX25"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AD25:AD27"/>
     <mergeCell ref="BW26:BX26"/>
     <mergeCell ref="BU26:BV26"/>
     <mergeCell ref="BM26:BN26"/>
@@ -8838,29 +9533,28 @@
     <mergeCell ref="BA26:BB26"/>
     <mergeCell ref="AY26:AZ26"/>
     <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="AK25:BX25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
     <mergeCell ref="AS26:AT26"/>
     <mergeCell ref="BE26:BF26"/>
     <mergeCell ref="BC26:BD26"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J26:J27"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="AE25:AE27"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="N26:N27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
